--- a/接口文档/评论API/评论API.xlsx
+++ b/接口文档/评论API/评论API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,13 +323,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -347,8 +340,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,21 +477,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -385,119 +485,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,19 +505,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,13 +637,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,145 +649,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,59 +813,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,6 +849,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -923,158 +877,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1129,9 +1116,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1141,28 +1125,19 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1519,186 +1494,186 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="15" spans="8:15">
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="16" spans="8:15">
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
     </row>
     <row r="17" spans="8:15">
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
     </row>
     <row r="18" spans="8:15">
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
     </row>
     <row r="19" spans="8:15">
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
     </row>
     <row r="20" spans="8:15">
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
     </row>
     <row r="21" spans="8:15">
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
     </row>
     <row r="22" spans="8:15">
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
     </row>
     <row r="23" spans="8:15">
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
     </row>
     <row r="24" spans="8:15">
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
     </row>
     <row r="25" spans="8:15">
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
     </row>
     <row r="26" spans="8:15">
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
     </row>
     <row r="27" spans="8:15">
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
     </row>
     <row r="28" spans="8:15">
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
     </row>
     <row r="29" spans="8:15">
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
     </row>
     <row r="30" spans="8:15">
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
     </row>
     <row r="31" spans="8:15">
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
     </row>
     <row r="32" spans="8:15">
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1732,8 +1707,8 @@
   <sheetPr/>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1755,8 +1730,8 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" ht="15" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -1768,8 +1743,8 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" ht="15" spans="1:7">
       <c r="A3" s="1" t="s">
@@ -1781,8 +1756,8 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" ht="15" spans="1:7">
       <c r="A4" s="8" t="s">
@@ -1800,8 +1775,8 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="10"/>
@@ -1813,10 +1788,10 @@
       <c r="E5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="22"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="10"/>
@@ -1828,8 +1803,8 @@
       <c r="E6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="10"/>
@@ -1841,10 +1816,10 @@
       <c r="E7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="10"/>
@@ -1856,8 +1831,8 @@
       <c r="E8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="10"/>
@@ -1869,8 +1844,8 @@
       <c r="E9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="10"/>
@@ -1882,8 +1857,8 @@
       <c r="E10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="10"/>
@@ -1895,8 +1870,8 @@
       <c r="E11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" ht="16.5" spans="1:7">
       <c r="A12" s="10"/>
@@ -1904,8 +1879,8 @@
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" ht="16.5" spans="1:7">
       <c r="A13" s="10"/>
@@ -1913,8 +1888,8 @@
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" ht="16.5" spans="1:7">
       <c r="A14" s="10"/>
@@ -1922,19 +1897,19 @@
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="18"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="22"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" ht="16.5" spans="1:7">
       <c r="A16" s="8" t="s">
@@ -1946,71 +1921,71 @@
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" ht="16.5" spans="1:7">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="18"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" ht="16.5" spans="1:7">
-      <c r="A20" s="18"/>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="22"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="23"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="22"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
@@ -2107,7 +2082,7 @@
   <sheetPr/>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -2215,33 +2190,33 @@
       <c r="E8" s="17"/>
     </row>
     <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="18"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="15" t="s">
         <v>36</v>
       </c>
@@ -2250,22 +2225,22 @@
       <c r="E11" s="17"/>
     </row>
     <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="18"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="23"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
